--- a/Test/Lawnmower/T2/Sensors_data_1000010.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9945268258758703</v>
+        <v>0.9532197275665123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002629795119067891</v>
+        <v>0.001921872017973586</v>
       </c>
       <c r="E2" t="n">
-        <v>0.103519288896927</v>
+        <v>0.007455958462826651</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8703633328317167</v>
+        <v>0.875580468243815</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004055697134580479</v>
+        <v>0.005290337531371863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3548416643472442</v>
+        <v>0.009280184234866984</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9807520869959663</v>
+        <v>0.2667996275806771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001288905371857511</v>
+        <v>0.03810426927201077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07692129819920673</v>
+        <v>0.6334726763316322</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9727799037163285</v>
+        <v>0.8682755870271314</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002362147549944258</v>
+        <v>0.003891359252567161</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02086943637220851</v>
+        <v>0.2469671748648944</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -575,18 +575,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8486854391236947</v>
+        <v>0.9992709620292335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004646181608112346</v>
+        <v>6.052799958242531e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0979232784677152</v>
+        <v>0.009280318617788219</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09428303210192968</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0435186238810565</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5543128367527028</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
